--- a/data/income_statement/3digits/total/613_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/613_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>613-Satellite telecommunications activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>613-Satellite telecommunications activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1584477.05096</v>
@@ -965,28 +871,33 @@
         <v>2751780.41142</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3079758.85022</v>
+        <v>3079790.97897</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3495179.32492</v>
+        <v>3565407.05414</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3801729.96189</v>
+        <v>3801742.01006</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4155145.41608</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4866093.873889999</v>
+        <v>4866174.20942</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5326477.99063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5331902.82824</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5840002.051</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1500044.87316</v>
@@ -998,40 +909,45 @@
         <v>2071856.32524</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2352903.17034</v>
+        <v>2352903.170340001</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>2643604.13226</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2963867.52374</v>
+        <v>2963899.65249</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3364245.77997</v>
+        <v>3434473.50919</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3657291.27687</v>
+        <v>3657302.69803</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3991436.52546</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4708679.47087</v>
+        <v>4708759.806399999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5127313.788190001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5132692.61732</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5628622.349</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>77662.77825</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>80627.91394000001</v>
+        <v>80627.91394</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>87651.62573999999</v>
@@ -1058,13 +974,18 @@
         <v>146832.23172</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>183655.79483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>183655.7948300001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>192848.31</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>6769.399549999999</v>
@@ -1085,10 +1006,10 @@
         <v>8663.3554</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9832.268600000001</v>
+        <v>9832.268599999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>10954.88353</v>
+        <v>10955.51054</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>16522.21931</v>
@@ -1097,13 +1018,18 @@
         <v>10582.1713</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>15508.40761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15554.41609</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18531.392</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>23408.81298</v>
@@ -1112,7 +1038,7 @@
         <v>36200.13973</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>68012.44773999999</v>
+        <v>68012.44774</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>95539.79926999999</v>
@@ -1124,10 +1050,10 @@
         <v>117636.95632</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>169073.34729</v>
+        <v>169272.47799</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>293246.2600900001</v>
+        <v>293246.26009</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>230135.47393</v>
@@ -1136,13 +1062,18 @@
         <v>349501.45492</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>415062.76189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>415085.09603</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>585854.968</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10391.50639</v>
@@ -1160,10 +1091,10 @@
         <v>25278.48448</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>32559.17733</v>
+        <v>32559.17733000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>52088.80077</v>
+        <v>52258.66079</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>156805.6215</v>
@@ -1175,13 +1106,18 @@
         <v>78687.52465000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>70858.04743999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>70861.1419</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>111005.849</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1879.10436</v>
@@ -1214,13 +1150,18 @@
         <v>174364.47466</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>240390.88459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>240402.21659</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>346369.55</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>11138.20223</v>
@@ -1241,7 +1182,7 @@
         <v>34525.76338</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>52943.44481</v>
+        <v>52972.71549</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>49675.5023</v>
@@ -1253,13 +1194,18 @@
         <v>96449.45561</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>103813.82986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>103821.73754</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>128479.569</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1561068.23798</v>
@@ -1274,31 +1220,36 @@
         <v>2361158.37008</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2653474.23634</v>
+        <v>2653474.236340001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2962121.8939</v>
+        <v>2962154.02265</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3326105.97763</v>
+        <v>3396134.57615</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3508483.7018</v>
+        <v>3508495.74997</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3925009.94215</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4516592.418969999</v>
+        <v>4516672.7545</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4911415.22874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4916817.732209999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5254147.083</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1082911.14534</v>
@@ -1316,28 +1267,33 @@
         <v>1861811.4045</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2258269.37631</v>
+        <v>2258348.25578</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2526184.42178</v>
+        <v>2641137.46884</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2749851.03064</v>
+        <v>2749864.55947</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3722298.16362</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4595718.7357</v>
+        <v>4595764.934179999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4938963.18287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4939877.74207</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4881700.096</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>392.93737</v>
@@ -1346,7 +1302,7 @@
         <v>4127.20161</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>647.18018</v>
+        <v>647.1801800000001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>698.5533200000001</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>109.55848</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>923.167</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>66568.46283999999</v>
@@ -1391,13 +1352,13 @@
         <v>52179.93099</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>68780.95548999999</v>
+        <v>68780.95549000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>65557.42885000001</v>
+        <v>65557.42885</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>86282.60852000001</v>
+        <v>86282.60851999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>101881.78247</v>
@@ -1409,13 +1370,18 @@
         <v>263110.2405</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>121702.58322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>122332.41968</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>142144.626</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1015587.93614</v>
@@ -1433,28 +1399,33 @@
         <v>1792133.53485</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2186820.01762</v>
+        <v>2186898.89709</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2439237.12381</v>
+        <v>2554190.17087</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2644134.53124</v>
+        <v>2644148.06007</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3491488.94316</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4332165.22956</v>
+        <v>4332211.42804</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4816502.335570001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4816787.05831</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4738148.013</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>361.80899</v>
@@ -1481,7 +1452,7 @@
         <v>415.76479</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>600.18618</v>
+        <v>600.1861799999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>249.34604</v>
@@ -1489,62 +1460,72 @@
       <c r="M18" s="48" t="n">
         <v>648.7056000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>484.29</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>478157.09264</v>
+        <v>478157.0926399999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>462180.96092</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>397536.3021700001</v>
+        <v>397536.30217</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>664382.6456899998</v>
+        <v>664382.6456899999</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>791662.83184</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>703852.5175900001</v>
+        <v>703805.7668700001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>799921.5558500001</v>
+        <v>754997.1073100001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>758632.6711600001</v>
+        <v>758631.1905</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>202711.77853</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>-79126.31673000001</v>
+        <v>-79092.17967999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>-27547.95413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>-23060.00985999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>372446.987</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>391573.76806</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>450753.5975</v>
+        <v>450753.5974999999</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>496744.14821</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>616771.2361</v>
+        <v>616771.2360999999</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>683369.65189</v>
@@ -1553,25 +1534,30 @@
         <v>677100.92268</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>721728.1388199999</v>
+        <v>726347.78027</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>788624.8303699999</v>
+        <v>788754.9793400001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>762370.58173</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>735001.40387</v>
+        <v>735199.04093</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>889099.1645599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>892662.51816</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>925610.025</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>263.74186</v>
@@ -1586,7 +1572,7 @@
         <v>125.04278</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6944.281410000001</v>
+        <v>6944.28141</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>7508.42521</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>12463.1573</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>14157.446</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>325167.74021</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>373394.0481199999</v>
+        <v>373394.04812</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>408809.45128</v>
@@ -1625,7 +1616,7 @@
         <v>509508.98845</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>550349.1058</v>
+        <v>550349.1057999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>553848.5031400002</v>
@@ -1634,7 +1625,7 @@
         <v>579562.3522999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>628500.6947999999</v>
+        <v>628535.8228000001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>560986.57647</v>
@@ -1643,19 +1634,24 @@
         <v>562134.7156900001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>704630.36755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>707178.55511</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>735844.52</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>66142.28599</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>77249.13809000001</v>
+        <v>77249.13808999999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>87919.80566</v>
@@ -1670,25 +1666,30 @@
         <v>115743.99433</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>134069.79225</v>
+        <v>138689.4337</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>151423.3556</v>
+        <v>151518.37657</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>193339.25695</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>161096.08653</v>
+        <v>161293.72359</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>172005.63971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>173020.80575</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>175608.059</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>86583.32458</v>
@@ -1706,28 +1707,33 @@
         <v>108293.17995</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>26751.59491</v>
+        <v>26704.84419</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>78193.41703</v>
+        <v>28649.32704</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-29992.15921000001</v>
+        <v>-30123.78884</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-559658.8032000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-814127.7206</v>
+        <v>-814291.2206099998</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-916647.1186899999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-915722.52802</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-553163.0379999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>171869.4917</v>
@@ -1745,13 +1751,13 @@
         <v>272761.85052</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>297754.71774</v>
+        <v>297754.7177399999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>285215.08409</v>
+        <v>338100.73905</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>361509.9312599999</v>
+        <v>361525.60501</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>421863.2249</v>
@@ -1760,13 +1766,18 @@
         <v>2020269.05525</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>621790.93398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>621928.81785</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1087882.432</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3620.16435</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8547.72919</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8823.385</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,23 +1856,28 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>60787.21402</v>
+        <v>60787.21402000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>44201.01003</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>41704.49111000001</v>
+        <v>41704.49111</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>40076.41873999999</v>
+        <v>40076.41874</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>33132.57367000001</v>
@@ -1865,7 +1886,7 @@
         <v>33255.79264</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13784.52974</v>
+        <v>29621.55535</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>33889.95552</v>
@@ -1877,13 +1898,18 @@
         <v>56359.4292</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>73633.01579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>73770.89966</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>74288.249</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.96942</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>8192.64991</v>
@@ -1943,7 +1974,7 @@
         <v>15967.05559</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>26986.07756</v>
+        <v>27371.16476</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>22628.48026</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>23247.19184</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>27466.479</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>489.48141</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>4646.54485</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4896.291</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>90719.11507</v>
@@ -2021,10 +2062,10 @@
         <v>188589.62121</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>223394.9316</v>
+        <v>223437.89502</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>242350.83801</v>
+        <v>242366.51176</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>265912.92201</v>
@@ -2033,13 +2074,18 @@
         <v>1830097.31692</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>421126.0341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>421126.0341000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>766892.7120000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.68268</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>8052.21484</v>
@@ -2138,7 +2194,7 @@
         <v>49451.05233</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>13565.16802</v>
+        <v>50185.74675</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>52780.31989999999</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>90590.41821</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>205515.316</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>128204.29067</v>
@@ -2177,10 +2238,10 @@
         <v>164623.02837</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>218667.69855</v>
+        <v>219222.43525</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>210942.09983</v>
+        <v>210957.64978</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>270736.01636</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>696095.0447</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>1126701.917</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>86.92168999999998</v>
@@ -2222,7 +2288,7 @@
         <v>8.7172</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>86.6157</v>
+        <v>86.61570000000002</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>157.37554</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>83.43932000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>88.164</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>29039.99432</v>
@@ -2252,10 +2323,10 @@
         <v>29542.09303</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>34932.06226000001</v>
+        <v>34932.06226</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>51657.83347</v>
+        <v>52206.31097</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>59104.66445</v>
@@ -2267,13 +2338,18 @@
         <v>45065.39151</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>73122.93629000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>73122.93629</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>74651.35400000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.25084</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>70.06999999999999</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>98986.59487</v>
+        <v>98986.59487000002</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>81102.57122999999</v>
@@ -2333,10 +2414,10 @@
         <v>120259.50109</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>159999.12424</v>
+        <v>160005.38344</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>145494.82357</v>
+        <v>145510.37351</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>210327.38905</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>610107.75377</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>948246.645</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>90.52895000000001</v>
@@ -2447,16 +2543,16 @@
         <v>13618.15227</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9393.422520000002</v>
+        <v>9393.42252</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>6915.907609999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6241.89461</v>
+        <v>6241.89462</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7825.031500000001</v>
+        <v>7825.0315</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>7242.73444</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>12780.91532</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>103645.684</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>32032.69103</v>
@@ -2477,22 +2578,22 @@
         <v>35900.65813</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>149707.6225800001</v>
+        <v>149707.62258</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>123411.33697</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>284723.0615000001</v>
+        <v>284723.0615</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>216848.82857</v>
+        <v>216848.91447</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>320493.50075</v>
+        <v>339472.59121</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>553925.83265</v>
+        <v>553942.7118500001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>344016.83191</v>
@@ -2501,13 +2602,18 @@
         <v>1049978.74427</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>245652.00259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>245652.91258</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>208688.454</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>28903.88246</v>
@@ -2519,34 +2625,39 @@
         <v>145595.47044</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>85786.91983</v>
+        <v>85786.91983000001</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>149228.67517</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>131662.12847</v>
+        <v>131662.21437</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>173490.60687</v>
+        <v>192469.69733</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>477277.42122</v>
+        <v>477294.30042</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>314878.65726</v>
+        <v>314878.6572600001</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>930558.29685</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>245557.40483</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>245558.31482</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>208555.301</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3128.80857</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>94.59776000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>133.153</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>98215.83458</v>
+        <v>98215.83458000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>62690.41449</v>
@@ -2603,28 +2719,33 @@
         <v>-69205.29412999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-56965.54429</v>
+        <v>-57012.38091000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-175752.69818</v>
+        <v>-191944.96037</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-433350.16043</v>
+        <v>-433498.54546</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-752548.42657</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1704657.50191</v>
+        <v>-1704821.00192</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-1236603.232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1235541.66745</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-800670.977</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>18928.69813</v>
@@ -2645,10 +2766,10 @@
         <v>29723.25616</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>77271.92913999999</v>
+        <v>77558.15122999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>35851.48589999999</v>
+        <v>35851.4859</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>55240.74492</v>
@@ -2657,13 +2778,18 @@
         <v>57223.3492</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>172006.46058</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>172011.69441</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>414859.06</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1005.13607</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2865.32875</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3572.543</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>17923.56206</v>
@@ -2723,7 +2854,7 @@
         <v>29574.70393</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>76950.53197999999</v>
+        <v>77236.75407000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>33918.85565</v>
@@ -2732,22 +2863,27 @@
         <v>53805.38266</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>55657.95898999999</v>
+        <v>55657.95899</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>169141.13183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>169146.36566</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>411286.517</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>31944.41692</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5953.610919999999</v>
+        <v>5953.610920000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>23228.05997</v>
@@ -2759,28 +2895,33 @@
         <v>160962.76179</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>46561.00807</v>
+        <v>46569.65069</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>42821.08272999999</v>
+        <v>42868.2674</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>494522.7079500001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>36720.75612999999</v>
+        <v>36720.75613</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>83215.42508</v>
+        <v>83216.06938000002</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>433840.64951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>434006.80806</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>43355.603</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1171.23319</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1919.48622</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>411970.91845</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>9757.861000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>30024.9307</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3894.059180000001</v>
+        <v>3894.05918</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>14358.63891</v>
@@ -2876,10 +3027,10 @@
         <v>160061.17792</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>44686.42172999999</v>
+        <v>44695.06434999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>20210.9761</v>
+        <v>20258.16076999999</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>485648.22149</v>
@@ -2888,25 +3039,30 @@
         <v>25117.61389</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>78470.96292000001</v>
+        <v>78471.60722000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>20698.49787000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20864.65642</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33597.742</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>85200.11579000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>74500.16127</v>
+        <v>74500.16127000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-64428.89567999999</v>
+        <v>-64428.89568</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>68294.03245999999</v>
@@ -2915,28 +3071,33 @@
         <v>-160838.31362</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-73803.2962</v>
+        <v>-73858.77544000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-141301.85177</v>
+        <v>-157255.07654</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-892021.38248</v>
+        <v>-892169.76751</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-734028.4377799999</v>
+        <v>-734028.43778</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1730649.57779</v>
+        <v>-1730813.7221</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1498437.42093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1497536.7811</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-429167.52</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>41481.82704</v>
@@ -2945,7 +3106,7 @@
         <v>28688.46823</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24840.88214000001</v>
+        <v>24840.88214</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>40128.39899</v>
@@ -2963,19 +3124,24 @@
         <v>35626.00047</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>59706.19938</v>
+        <v>59706.19938000001</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>111637.44608</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>112324.9854</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>112584.71174</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>165064.339</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>43718.28875</v>
@@ -2984,7 +3150,7 @@
         <v>45811.69304</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-89269.77782</v>
+        <v>-89269.77781999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>28165.63347</v>
@@ -2993,25 +3159,28 @@
         <v>-202541.86634</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-92230.57621</v>
+        <v>-92286.05545</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-193038.78615</v>
+        <v>-208992.01092</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-927647.3829499999</v>
+        <v>-927795.76798</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-793734.63716</v>
+        <v>-793734.6371599999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1842287.02387</v>
+        <v>-1842451.16818</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1610762.40633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1610121.49284</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-594231.8590000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>73</v>
@@ -3047,25 +3219,28 @@
         <v>112</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>128</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>